--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -10,6 +10,7 @@
     <sheet name="配件表" sheetId="1" r:id="rId1"/>
     <sheet name="武器表" sheetId="2" r:id="rId2"/>
     <sheet name="单插件数据计算范例表" sheetId="5" r:id="rId3"/>
+    <sheet name="消焰器" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>消焰器</t>
   </si>
@@ -269,6 +270,36 @@
   </si>
   <si>
     <t>BIG</t>
+  </si>
+  <si>
+    <t>barrelpos</t>
+  </si>
+  <si>
+    <t>64,9</t>
+  </si>
+  <si>
+    <t>80,5</t>
+  </si>
+  <si>
+    <t>80,0</t>
+  </si>
+  <si>
+    <t>54,9</t>
+  </si>
+  <si>
+    <t>45,-20</t>
+  </si>
+  <si>
+    <t>58,19</t>
+  </si>
+  <si>
+    <t>100,20</t>
+  </si>
+  <si>
+    <t>aimpos</t>
+  </si>
+  <si>
+    <t>57,-5</t>
   </si>
   <si>
     <t>插件名称</t>
@@ -316,6 +347,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="凤凰点阵体 16px"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFE6DB74"/>
       <name val="Inconsolata"/>
@@ -326,12 +363,6 @@
       <sz val="12"/>
       <color rgb="FF6E7066"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="凤凰点阵体 16px"/>
       <charset val="134"/>
     </font>
     <font>
@@ -974,37 +1005,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1574,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1593,43 +1624,43 @@
       </c>
     </row>
     <row r="2" ht="48.6" spans="2:15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="13" t="s">
@@ -1640,127 +1671,127 @@
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="5">
         <v>0.05</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="5">
         <v>0.1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>0.15</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="5">
         <v>0.05</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="O3" s="12"/>
     </row>
     <row r="4" ht="32.4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5">
         <v>0.1</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" ht="32.4" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>20</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="5">
         <v>-15</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="14"/>
     </row>
     <row r="6" ht="16.2" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5">
         <v>-5</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="5">
         <v>-4</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="5">
         <v>-3</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
       <c r="O6" s="14"/>
     </row>
     <row r="7" ht="32.4" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5">
         <v>-10</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="5">
         <v>-8</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="5">
         <v>-6</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="5">
         <v>-8</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
       <c r="O7" s="14"/>
     </row>
     <row r="8" ht="32.4" spans="1:15">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5">
         <v>300</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="5">
         <v>300</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="5">
         <v>450</v>
       </c>
       <c r="O8" s="14">
@@ -1771,70 +1802,70 @@
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5">
         <v>0.4</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="5">
         <v>0.1</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="5">
         <v>0.3</v>
       </c>
       <c r="O9" s="14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" ht="16.95" spans="1:15">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="11" customFormat="1" ht="16.95" spans="1:15">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="11" t="b">
+      <c r="B10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="11" t="b">
+      <c r="G10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="b">
+      <c r="H10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="M10" s="11" t="b">
+      <c r="M10" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="11" t="b">
+      <c r="N10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="15" t="b">
@@ -1845,43 +1876,43 @@
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
       <c r="O11" s="12"/>
     </row>
     <row r="12" ht="32.4" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5">
         <v>-0.3</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="5">
         <v>-0.2</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="5">
         <v>-0.1</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="5">
         <v>-0.1</v>
       </c>
       <c r="O12" s="12"/>
@@ -1895,12 +1926,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1960,55 +1991,55 @@
     </row>
     <row r="2" ht="48.6" spans="1:18">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2019,7 +2050,7 @@
       <c r="B3">
         <v>1.3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3">
@@ -2246,106 +2277,106 @@
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>6</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>12</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
         <v>12</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="9">
         <v>12</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="9">
         <v>6</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>6</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>12</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <v>12</v>
       </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9">
         <v>12</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9">
         <v>6</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="9">
         <v>6</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="9">
         <v>12</v>
       </c>
-      <c r="R10" s="7"/>
+      <c r="R10" s="9"/>
     </row>
     <row r="11" ht="48.6" spans="1:18">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="9">
         <v>1</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="9">
         <v>1</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>1</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>1</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="9">
         <v>1</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
         <v>1</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="9">
         <v>1</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="9">
         <v>1</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="9">
         <v>1</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:18">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
@@ -2401,7 +2432,7 @@
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:18">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B13" t="s">
@@ -2457,14 +2488,14 @@
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:18">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
@@ -2479,7 +2510,7 @@
         <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
         <v>77</v>
@@ -2488,7 +2519,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
         <v>77</v>
@@ -2497,7 +2528,7 @@
         <v>77</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
         <v>77</v>
@@ -2513,26 +2544,26 @@
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:18">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
       </c>
       <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
       <c r="E15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
         <v>79</v>
@@ -2544,7 +2575,7 @@
         <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L15" t="s">
         <v>77</v>
@@ -2553,19 +2584,53 @@
         <v>77</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P15" t="s">
         <v>77</v>
       </c>
       <c r="Q15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R15" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="16" ht="16.2" spans="1:17">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" ht="16.2" spans="1:17">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +2650,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2647,7 +2712,7 @@
         <v>54</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" ht="48.6" spans="1:21">
@@ -2723,7 +2788,7 @@
         <v/>
       </c>
       <c r="S2" s="4" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>28</v>
@@ -3273,32 +3338,32 @@
         <v/>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="6" t="s">
         <v>35</v>
       </c>
       <c r="U9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="33.15" spans="1:20">
+    <row r="10" ht="33.15" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B10">
         <f>IF(武器表!B11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <f>IF(武器表!C11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f>IF(武器表!D11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <f>IF(武器表!E11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
         <f>IF(武器表!F11&lt;&gt;"",$U10,"")</f>
@@ -3306,27 +3371,27 @@
       </c>
       <c r="G10">
         <f>IF(武器表!G11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f>IF(武器表!H11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f>IF(武器表!I11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <f>IF(武器表!J11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10">
         <f>IF(武器表!K11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <f>IF(武器表!L11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M10" t="str">
         <f>IF(武器表!M11&lt;&gt;"",$U10,"")</f>
@@ -3334,27 +3399,899 @@
       </c>
       <c r="N10">
         <f>IF(武器表!N11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <f>IF(武器表!O11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <f>IF(武器表!P11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <f>IF(武器表!Q11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <f>IF(武器表!R11&lt;&gt;"",$U10,"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="48.6" spans="1:20">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <f>IF(武器表!B12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>IF(武器表!C12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>IF(武器表!D12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>IF(武器表!E12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>IF(武器表!F12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>IF(武器表!G12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>IF(武器表!H12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IF(武器表!I12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>IF(武器表!J12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>IF(武器表!K12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>IF(武器表!L12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>IF(武器表!M12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>IF(武器表!N12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IF(武器表!O12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>IF(武器表!P12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f>IF(武器表!Q12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f>IF(武器表!R12&lt;&gt;"",$U11,"")</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="16.2" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="S2:S11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="20" max="20" width="18.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="48.6" spans="1:21">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <f>IF(武器表!B3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!B3+$U2,"请填写"),""),"")</f>
+        <v>1.35</v>
+      </c>
+      <c r="C2">
+        <f>IF(武器表!C3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!C3+$U2,"请填写"),""),"")</f>
+        <v>1.05</v>
+      </c>
+      <c r="D2">
+        <f>IF(武器表!D3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!D3+$U2,"请填写"),""),"")</f>
+        <v>1.05</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(武器表!E3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!E3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(武器表!F3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!F3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>IF(武器表!G3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!G3+$U2,"请填写"),""),"")</f>
+        <v>0.85</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(武器表!H3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!H3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(武器表!I3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!I3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J2">
+        <f>IF(武器表!J3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!J3+$U2,"请填写"),""),"")</f>
+        <v>1.3</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(武器表!K3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!K3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(武器表!L3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!L3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(武器表!M3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!M3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N2">
+        <f>IF(武器表!N3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!N3+$U2,"请填写"),""),"")</f>
+        <v>1.55</v>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(武器表!O3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!O3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P2">
+        <f>IF(武器表!P3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!P3+$U2,"请填写"),""),"")</f>
+        <v>0.95</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(武器表!Q3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!Q3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str">
+        <f>IF(武器表!R3&lt;&gt;"",IF($U2&lt;&gt;"",IF($U$9,武器表!R3+$U2,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" ht="32.4" spans="1:21">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(武器表!B4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!B4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(武器表!C4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!C4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(武器表!D4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!D4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(武器表!E4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!E4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(武器表!F4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!F4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(武器表!G4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!G4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(武器表!H4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!H4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(武器表!I4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!I4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(武器表!J4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!J4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(武器表!K4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!K4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(武器表!L4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!L4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(武器表!M4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!M4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(武器表!N4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!N4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f>IF(武器表!O4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!O4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(武器表!P4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!P4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(武器表!Q4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!Q4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(武器表!R4&lt;&gt;"",IF($U3&lt;&gt;"",IF($U$9,武器表!R4+$U3,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" ht="32.4" spans="1:21">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="str">
+        <f>IF(武器表!B5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!B5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(武器表!C5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!C5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <f>IF(武器表!D5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!D5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(武器表!E5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!E5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(武器表!F5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!F5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(武器表!G5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!G5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(武器表!H5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!H5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(武器表!I5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!I5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(武器表!J5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!J5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(武器表!K5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!K5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(武器表!L5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!L5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f>IF(武器表!M5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!M5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(武器表!N5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!N5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O4" t="str">
+        <f>IF(武器表!O5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!O5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <f>IF(武器表!P5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!P5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(武器表!Q5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!Q5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(武器表!R5&lt;&gt;"",IF($U4&lt;&gt;"",IF($U$9,武器表!R5+$U4,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" ht="16.2" spans="1:21">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="str">
+        <f>IF(武器表!B6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!B6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(武器表!C6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!C6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <f>IF(武器表!D6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!D6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(武器表!E6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!E6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(武器表!F6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!F6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(武器表!G6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!G6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f>IF(武器表!H6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!H6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f>IF(武器表!I6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!I6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(武器表!J6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!J6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(武器表!K6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!K6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(武器表!L6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!L6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF(武器表!M6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!M6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(武器表!N6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!N6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <f>IF(武器表!O6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!O6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(武器表!P6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!P6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(武器表!Q6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!Q6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(武器表!R6&lt;&gt;"",IF($U5&lt;&gt;"",IF($U$9,武器表!R6+$U5,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" ht="48.6" spans="1:21">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="str">
+        <f>IF(武器表!B7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!B7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <f>IF(武器表!C7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!C7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <f>IF(武器表!D7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!D7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(武器表!E7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!E7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(武器表!F7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!F7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>IF(武器表!G7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!G7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f>IF(武器表!H7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!H7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f>IF(武器表!I7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!I7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(武器表!J7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!J7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(武器表!K7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!K7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(武器表!L7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!L7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(武器表!M7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!M7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(武器表!N7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!N7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f>IF(武器表!O7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!O7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(武器表!P7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!P7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(武器表!Q7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!Q7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(武器表!R7&lt;&gt;"",IF($U6&lt;&gt;"",IF($U$9,武器表!R7+$U6,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" s="5"/>
+    </row>
+    <row r="7" ht="48.6" spans="1:20">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="str">
+        <f>IF(武器表!B8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!B8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <f>IF(武器表!C8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!C8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <f>IF(武器表!D8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!D8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(武器表!E8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!E8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(武器表!F8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!F8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(武器表!G8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!G8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f>IF(武器表!H8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!H8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f>IF(武器表!I8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!I8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(武器表!J8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!J8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(武器表!K8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!K8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(武器表!L8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!L8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(武器表!M8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!M8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(武器表!N8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!N8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f>IF(武器表!O8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!O8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(武器表!P8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!P8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(武器表!Q8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!Q8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(武器表!R8&lt;&gt;"",IF($U7&lt;&gt;"",IF($U$9,武器表!R8+$U7,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="32.4" spans="1:21">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="str">
+        <f>IF(武器表!B9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!B9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <f>IF(武器表!C9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!C9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <f>IF(武器表!D9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!D9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(武器表!E9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!E9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(武器表!F9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!F9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(武器表!G9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!G9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f>IF(武器表!H9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!H9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f>IF(武器表!I9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!I9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(武器表!J9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!J9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(武器表!K9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!K9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(武器表!L9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!L9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f>IF(武器表!M9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!M9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f>IF(武器表!N9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!N9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f>IF(武器表!O9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!O9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(武器表!P9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!P9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(武器表!Q9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!Q9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(武器表!R9&lt;&gt;"",IF($U8&lt;&gt;"",IF($U$9,武器表!R9+$U8,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" ht="16.95" spans="2:21">
+      <c r="B9">
+        <f>IF(武器表!B10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!B10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <f>IF(武器表!C10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!C10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <f>IF(武器表!D10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!D10+$U9,"请填写"),""),"")</f>
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>IF(武器表!E10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!E10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(武器表!F10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!F10+$U9,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>IF(武器表!G10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!G10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <f>IF(武器表!H10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!H10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <f>IF(武器表!I10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!I10+$U9,"请填写"),""),"")</f>
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <f>IF(武器表!J10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!J10+$U9,"请填写"),""),"")</f>
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <f>IF(武器表!K10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!K10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f>IF(武器表!L10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!L10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="M9" t="str">
+        <f>IF(武器表!M10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!M10+$U9,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="N9">
+        <f>IF(武器表!N10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!N10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="O9">
+        <f>IF(武器表!O10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!O10+$U9,"请填写"),""),"")</f>
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <f>IF(武器表!P10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!P10+$U9,"请填写"),""),"")</f>
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <f>IF(武器表!Q10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!Q10+$U9,"请填写"),""),"")</f>
+        <v>13</v>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(武器表!R10&lt;&gt;"",IF($U9&lt;&gt;"",IF($U$9,武器表!R10+$U9,"请填写"),""),"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="33.15" spans="1:21">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <f>IF(武器表!B11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>IF(武器表!C11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>IF(武器表!D11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <f>IF(武器表!E11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(武器表!F11&lt;&gt;"",$U10,"")</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>IF(武器表!G11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <f>IF(武器表!H11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <f>IF(武器表!I11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f>IF(武器表!J11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <f>IF(武器表!K11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <f>IF(武器表!L11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="M10" t="str">
+        <f>IF(武器表!M11&lt;&gt;"",$U10,"")</f>
+        <v/>
+      </c>
+      <c r="N10">
+        <f>IF(武器表!N11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f>IF(武器表!O11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <f>IF(武器表!P11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <f>IF(武器表!Q11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <f>IF(武器表!R11&lt;&gt;"",$U10,"")</f>
+        <v>3</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="48.6" spans="1:20">
